--- a/results/mp/logistic/corona/confidence/168/masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="176">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,159 +43,150 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>debt</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>disgusting</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>shortages</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
-    <t>price</t>
+    <t>why</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>over</t>
   </si>
   <si>
     <t>buying</t>
   </si>
   <si>
-    <t>because</t>
-  </si>
-  <si>
     <t>due</t>
   </si>
   <si>
@@ -205,307 +196,298 @@
     <t>co</t>
   </si>
   <si>
-    <t>more</t>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
     <t>on</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>is</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>at</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>in</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>security</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>yourself</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>article</t>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
+    <t>staff</t>
+  </si>
+  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>employees</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>your</t>
   </si>
   <si>
     <t>shopping</t>
@@ -514,67 +496,52 @@
     <t>you</t>
   </si>
   <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>can</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
   <si>
     <t>we</t>
   </si>
   <si>
-    <t>so</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>as</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
     <t>'</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>this</t>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -932,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,10 +907,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1001,13 +968,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1019,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1043,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1051,13 +1018,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1072,16 +1039,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1093,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1101,13 +1068,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1119,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1143,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1151,13 +1118,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8184931506849316</v>
+        <v>0.84</v>
       </c>
       <c r="C6">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1169,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1193,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1201,13 +1168,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1219,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1243,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1251,13 +1218,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8076923076923077</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1269,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K8">
-        <v>0.8833333333333333</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1293,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1301,13 +1268,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7931034482758621</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1319,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <v>0.8666666666666667</v>
@@ -1351,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1369,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K10">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1393,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1401,13 +1368,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1419,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K11">
-        <v>0.8350785340314136</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L11">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>320</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1440,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1451,13 +1418,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7631578947368421</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1469,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8459530026109661</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1493,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1501,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.76</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1519,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K13">
-        <v>0.8301886792452831</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L13">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1543,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1551,13 +1518,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7567567567567568</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1569,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K14">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1593,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1601,13 +1568,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7391304347826086</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1619,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K15">
-        <v>0.8181818181818182</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1643,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1651,13 +1618,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7368421052631579</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1669,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K16">
         <v>0.8181818181818182</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1693,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1701,13 +1668,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7368421052631579</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1719,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K17">
-        <v>0.8170731707317073</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1743,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1751,7 +1718,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7058823529411765</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C18">
         <v>36</v>
@@ -1769,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K18">
-        <v>0.813953488372093</v>
+        <v>0.79375</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1793,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1801,13 +1768,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6538461538461539</v>
+        <v>0.6027131782945736</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1819,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L19">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1843,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1851,13 +1818,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6521739130434783</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1869,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1893,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1901,13 +1868,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6129032258064516</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1919,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1951,13 +1918,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1969,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K22">
-        <v>0.796875</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L22">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1993,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2001,13 +1968,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5909090909090909</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2019,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K23">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2043,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2051,13 +2018,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5873015873015873</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C24">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2069,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K24">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2093,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2101,13 +2068,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2119,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K25">
-        <v>0.7435897435897436</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2143,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2151,13 +2118,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5794573643410853</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C26">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2169,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K26">
-        <v>0.7407407407407407</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2193,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2201,13 +2168,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5769230769230769</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2219,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K27">
-        <v>0.7301587301587301</v>
+        <v>0.765625</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2243,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2251,13 +2218,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2269,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2293,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2301,13 +2268,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5423728813559322</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2319,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K29">
-        <v>0.7083333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2343,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2351,13 +2318,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5369127516778524</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2369,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K30">
-        <v>0.6842105263157895</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2393,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2401,13 +2368,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5333333333333333</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2419,19 +2386,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K31">
-        <v>0.6818181818181818</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2451,13 +2418,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2469,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K32">
-        <v>0.675</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2493,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2501,13 +2468,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4864864864864865</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2519,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.6794117647058824</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2543,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2551,13 +2518,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4642857142857143</v>
+        <v>0.4472222222222222</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2569,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2593,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2601,37 +2568,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4615384615384616</v>
+        <v>0.4375</v>
       </c>
       <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>18</v>
       </c>
-      <c r="D35">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>21</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K35">
-        <v>0.6617647058823529</v>
+        <v>0.625</v>
       </c>
       <c r="L35">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2643,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>115</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2651,13 +2618,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2669,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K36">
-        <v>0.6571428571428571</v>
+        <v>0.62</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2693,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2701,13 +2668,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4611111111111111</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C37">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2719,19 +2686,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K37">
-        <v>0.6461538461538462</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2743,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2751,13 +2718,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4545454545454545</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2769,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K38">
-        <v>0.6428571428571429</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2793,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2801,13 +2768,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4516129032258064</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2819,31 +2786,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K39">
-        <v>0.6428571428571429</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2851,37 +2818,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K40">
-        <v>0.6305084745762712</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L40">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2893,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>109</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2901,7 +2868,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.40625</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="C41">
         <v>13</v>
@@ -2919,19 +2886,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K41">
-        <v>0.6276150627615062</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2943,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2951,13 +2918,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2972,16 +2939,16 @@
         <v>54</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K42">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2993,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3001,13 +2968,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3019,19 +2986,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K43">
-        <v>0.62</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3043,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3051,13 +3018,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4</v>
+        <v>0.275</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3069,19 +3036,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K44">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3093,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3101,13 +3068,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3902439024390244</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3119,19 +3086,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K45">
-        <v>0.6071428571428571</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3143,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3151,13 +3118,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2857142857142857</v>
+        <v>0.2278820375335121</v>
       </c>
       <c r="C46">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D46">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3169,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K46">
-        <v>0.5957446808510638</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L46">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3193,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3201,13 +3168,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2745098039215687</v>
+        <v>0.14</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3219,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K47">
-        <v>0.5955056179775281</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L47">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3243,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3251,13 +3218,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2597402597402597</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3269,19 +3236,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K48">
-        <v>0.5925925925925926</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3293,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3301,31 +3268,31 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2466487935656836</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="C49">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K49">
-        <v>0.5833333333333334</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L49">
         <v>14</v>
@@ -3343,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3351,13 +3318,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1875</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3369,31 +3336,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K50">
-        <v>0.5714285714285714</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>17</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>16</v>
-      </c>
-      <c r="M50">
-        <v>16</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3401,37 +3368,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.15</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K51">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3443,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3451,28 +3418,28 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.09655172413793103</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
+        <v>222</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="K52">
         <v>0.5</v>
@@ -3501,13 +3468,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08873720136518772</v>
+        <v>0.04076086956521739</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3519,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K53">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L53">
         <v>13</v>
@@ -3543,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3551,37 +3518,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.08125</v>
+        <v>0.03694102397926118</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>147</v>
+        <v>2972</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K54">
-        <v>0.4888888888888889</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3593,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3601,37 +3568,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07659574468085106</v>
+        <v>0.03543647363872083</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D55">
+        <v>45</v>
+      </c>
+      <c r="E55">
+        <v>0.09</v>
+      </c>
+      <c r="F55">
+        <v>0.91</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1116</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L55">
         <v>19</v>
       </c>
-      <c r="E55">
-        <v>0.05</v>
-      </c>
-      <c r="F55">
-        <v>0.95</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>217</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K55">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L55">
-        <v>13</v>
-      </c>
       <c r="M55">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3643,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3651,37 +3618,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.03814713896457766</v>
+        <v>0.02917341977309562</v>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>0.07000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="F56">
-        <v>0.9299999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>353</v>
+        <v>599</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K56">
-        <v>0.4705882352941176</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3693,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3701,37 +3668,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0366051182377713</v>
+        <v>0.02793946449359721</v>
       </c>
       <c r="C57">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="E57">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F57">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2974</v>
+        <v>835</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K57">
-        <v>0.4705882352941176</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3743,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3751,49 +3718,49 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03102625298329355</v>
+        <v>0.02722063037249284</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E58">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="F58">
-        <v>0.5900000000000001</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>406</v>
+        <v>679</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K58">
-        <v>0.4615384615384616</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L58">
+        <v>23</v>
+      </c>
+      <c r="M58">
+        <v>23</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>36</v>
-      </c>
-      <c r="M58">
-        <v>36</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3801,37 +3768,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.02932426689332767</v>
+        <v>0.02695035460992908</v>
       </c>
       <c r="C59">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D59">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E59">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="F59">
-        <v>0.73</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>2284</v>
+        <v>2058</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K59">
-        <v>0.4383561643835616</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L59">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3843,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3851,37 +3818,37 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.02903600464576074</v>
+        <v>0.02669404517453799</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="F60">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>836</v>
+        <v>474</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K60">
-        <v>0.4285714285714285</v>
+        <v>0.328125</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3893,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3901,37 +3868,37 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02852203975799482</v>
+        <v>0.02596849723286505</v>
       </c>
       <c r="C61">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D61">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E61">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="F61">
-        <v>0.89</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1124</v>
+        <v>2288</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K61">
-        <v>0.4262295081967213</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3943,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3951,37 +3918,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.02710413694721826</v>
+        <v>0.02433371958285052</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E62">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="F62">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>682</v>
+        <v>842</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K62">
-        <v>0.3859649122807017</v>
+        <v>0.325</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3993,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4001,37 +3968,37 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02674897119341564</v>
+        <v>0.01774622892635315</v>
       </c>
       <c r="C63">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E63">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="F63">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>473</v>
+        <v>1107</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K63">
-        <v>0.3714285714285714</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -4043,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4051,37 +4018,37 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02649006622516556</v>
+        <v>0.01772255041760033</v>
       </c>
       <c r="C64">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D64">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="E64">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="F64">
-        <v>0.6599999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>2058</v>
+        <v>4822</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K64">
-        <v>0.359375</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4093,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4101,37 +4068,37 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02415458937198068</v>
+        <v>0.01755786113328013</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E65">
-        <v>0.29</v>
+        <v>0.62</v>
       </c>
       <c r="F65">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>606</v>
+        <v>1231</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K65">
-        <v>0.3559322033898305</v>
+        <v>0.2</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4143,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4151,37 +4118,37 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02199074074074074</v>
+        <v>0.01636758035890357</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D66">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="E66">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="F66">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>845</v>
+        <v>4988</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K66">
-        <v>0.3409090909090909</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -4193,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4201,37 +4168,37 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01962533452274755</v>
+        <v>0.01574114560559685</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D67">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E67">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="F67">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1099</v>
+        <v>2251</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K67">
-        <v>0.2222222222222222</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4243,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4251,49 +4218,49 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.01910828025477707</v>
+        <v>0.01489203276247208</v>
       </c>
       <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68">
+        <v>0.5</v>
+      </c>
+      <c r="F68">
+        <v>0.5</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1323</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K68">
+        <v>0.1678321678321678</v>
+      </c>
+      <c r="L68">
         <v>24</v>
       </c>
-      <c r="D68">
-        <v>57</v>
-      </c>
-      <c r="E68">
-        <v>0.58</v>
-      </c>
-      <c r="F68">
-        <v>0.42</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1232</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K68">
-        <v>0.2149532710280374</v>
-      </c>
-      <c r="L68">
-        <v>23</v>
-      </c>
       <c r="M68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N68">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4301,49 +4268,49 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.01628423390081421</v>
+        <v>0.01338028169014084</v>
       </c>
       <c r="C69">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D69">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="E69">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="F69">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1329</v>
+        <v>4203</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K69">
-        <v>0.1684782608695652</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L69">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4351,49 +4318,49 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.01557263946382811</v>
+        <v>0.01294363256784969</v>
       </c>
       <c r="C70">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D70">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="E70">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="F70">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>4994</v>
+        <v>2364</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K70">
-        <v>0.1532258064516129</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M70">
         <v>19</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4401,49 +4368,49 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.01552287581699346</v>
+        <v>0.01082753286929621</v>
       </c>
       <c r="C71">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="E71">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="F71">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>4820</v>
+        <v>2558</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K71">
-        <v>0.1473684210526316</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="L71">
         <v>14</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4451,49 +4418,49 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.01535087719298246</v>
+        <v>0.009394081728511038</v>
       </c>
       <c r="C72">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E72">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="F72">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>2245</v>
+        <v>2109</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K72">
-        <v>0.1354166666666667</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>83</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4501,37 +4468,37 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.01513387660069849</v>
+        <v>0.009064422143088379</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D73">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="E73">
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="F73">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>846</v>
+        <v>3061</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K73">
-        <v>0.1328671328671329</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4543,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4551,49 +4518,49 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.01437451437451437</v>
+        <v>0.008408796895213453</v>
       </c>
       <c r="C74">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D74">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="E74">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="F74">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2537</v>
+        <v>1533</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K74">
-        <v>0.1150442477876106</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M74">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4601,131 +4568,83 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.01434619002822201</v>
+        <v>0.005610703495899871</v>
       </c>
       <c r="C75">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D75">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E75">
-        <v>0.55</v>
+        <v>0.86</v>
       </c>
       <c r="F75">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>4191</v>
+        <v>2304</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K75">
-        <v>0.1104651162790698</v>
+        <v>0.09375</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M75">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>153</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.01302521008403361</v>
-      </c>
-      <c r="C76">
-        <v>31</v>
-      </c>
-      <c r="D76">
-        <v>96</v>
-      </c>
-      <c r="E76">
-        <v>0.68</v>
-      </c>
-      <c r="F76">
-        <v>0.32</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2349</v>
-      </c>
       <c r="J76" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K76">
-        <v>0.1049382716049383</v>
+        <v>0.09120521172638436</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N76">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>145</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.01225806451612903</v>
-      </c>
-      <c r="C77">
-        <v>19</v>
-      </c>
-      <c r="D77">
-        <v>63</v>
-      </c>
-      <c r="E77">
-        <v>0.7</v>
-      </c>
-      <c r="F77">
-        <v>0.3</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1531</v>
-      </c>
       <c r="J77" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K77">
-        <v>0.09090909090909091</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L77">
         <v>15</v>
@@ -4743,95 +4662,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.01132609721566777</v>
-      </c>
-      <c r="C78">
-        <v>24</v>
-      </c>
-      <c r="D78">
-        <v>63</v>
-      </c>
-      <c r="E78">
-        <v>0.62</v>
-      </c>
-      <c r="F78">
-        <v>0.38</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>2095</v>
-      </c>
       <c r="J78" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K78">
-        <v>0.08469055374592833</v>
+        <v>0.07326007326007326</v>
       </c>
       <c r="L78">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M78">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N78">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O78">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>281</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.01035598705501618</v>
-      </c>
-      <c r="C79">
-        <v>32</v>
-      </c>
-      <c r="D79">
-        <v>143</v>
-      </c>
-      <c r="E79">
-        <v>0.78</v>
-      </c>
-      <c r="F79">
-        <v>0.22</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>3058</v>
-      </c>
       <c r="J79" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K79">
-        <v>0.07958477508650519</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M79">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -4843,305 +4714,281 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.006063230835859679</v>
-      </c>
-      <c r="C80">
-        <v>14</v>
-      </c>
-      <c r="D80">
-        <v>99</v>
-      </c>
-      <c r="E80">
-        <v>0.86</v>
-      </c>
-      <c r="F80">
-        <v>0.14</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>2295</v>
-      </c>
       <c r="J80" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K80">
-        <v>0.07932692307692307</v>
+        <v>0.06873428331936295</v>
       </c>
       <c r="L80">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M80">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>383</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K81">
-        <v>0.07775919732441472</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="L81">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1103</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K82">
-        <v>0.06876790830945559</v>
+        <v>0.06067961165048544</v>
       </c>
       <c r="L82">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M82">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>325</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K83">
-        <v>0.06605504587155964</v>
+        <v>0.06017191977077364</v>
       </c>
       <c r="L83">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N83">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>509</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K84">
-        <v>0.06220095693779904</v>
+        <v>0.03869653767820774</v>
       </c>
       <c r="L84">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M84">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>392</v>
+        <v>944</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K85">
-        <v>0.05747126436781609</v>
+        <v>0.03661971830985915</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M85">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N85">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="O85">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>246</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K86">
-        <v>0.04938271604938271</v>
+        <v>0.03660565723793677</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M86">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N86">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="O86">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>308</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="K87">
-        <v>0.04672897196261682</v>
+        <v>0.03529782540182792</v>
       </c>
       <c r="L87">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="M87">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="N87">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="O87">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>510</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K88">
-        <v>0.0429042904290429</v>
+        <v>0.03444444444444444</v>
       </c>
       <c r="L88">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N88">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O88">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>290</v>
+        <v>869</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K89">
-        <v>0.03755690440060698</v>
+        <v>0.03289224952741021</v>
       </c>
       <c r="L89">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M89">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="N89">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="O89">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>2537</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K90">
-        <v>0.03571428571428571</v>
+        <v>0.03233935321293574</v>
       </c>
       <c r="L90">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M90">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N90">
         <v>0.86</v>
@@ -5153,553 +5000,553 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>2295</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="K91">
-        <v>0.03571428571428571</v>
+        <v>0.03036053130929791</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M91">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N91">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="O91">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>459</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="K92">
-        <v>0.0350584307178631</v>
+        <v>0.02841357537490134</v>
       </c>
       <c r="L92">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M92">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N92">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="O92">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>578</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="K93">
-        <v>0.03502682234143263</v>
+        <v>0.02638190954773869</v>
       </c>
       <c r="L93">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="M93">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="N93">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O93">
-        <v>0.22</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>3058</v>
+        <v>775</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K94">
-        <v>0.03439153439153439</v>
+        <v>0.02618816682832202</v>
       </c>
       <c r="L94">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M94">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N94">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="O94">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>365</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K95">
-        <v>0.0327613104524181</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="L95">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M95">
         <v>30</v>
       </c>
       <c r="N95">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O95">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>620</v>
+        <v>690</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K96">
-        <v>0.03160270880361174</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="L96">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M96">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N96">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="O96">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>429</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="K97">
-        <v>0.03140703517587939</v>
+        <v>0.02206736353077816</v>
       </c>
       <c r="L97">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M97">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N97">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="O97">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>771</v>
+        <v>842</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="K98">
-        <v>0.03140096618357488</v>
+        <v>0.02071251035625518</v>
       </c>
       <c r="L98">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M98">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="N98">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="O98">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>401</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K99">
-        <v>0.03114571746384872</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="L99">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N99">
-        <v>0.93</v>
+        <v>0.58</v>
       </c>
       <c r="O99">
-        <v>0.06999999999999995</v>
+        <v>0.42</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>871</v>
+        <v>744</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="K100">
-        <v>0.02968270214943705</v>
+        <v>0.01849665486029122</v>
       </c>
       <c r="L100">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="M100">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="N100">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="O100">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>948</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K101">
-        <v>0.02904162633107454</v>
+        <v>0.01791713325867861</v>
       </c>
       <c r="L101">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M101">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N101">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O101">
-        <v>0.1899999999999999</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>1003</v>
+        <v>877</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K102">
-        <v>0.02793650793650794</v>
+        <v>0.01772255041760033</v>
       </c>
       <c r="L102">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="M102">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="N102">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="O102">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>1531</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="K103">
-        <v>0.02692626346313173</v>
+        <v>0.01674107142857143</v>
       </c>
       <c r="L103">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M103">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N103">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="O103">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>2349</v>
+        <v>881</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K104">
-        <v>0.02608695652173913</v>
+        <v>0.015921329899321</v>
       </c>
       <c r="L104">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="M104">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="N104">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="O104">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>1232</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K105">
-        <v>0.02196531791907514</v>
+        <v>0.01489203276247208</v>
       </c>
       <c r="L105">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M105">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N105">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="O105">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>846</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="K106">
-        <v>0.02085747392815759</v>
+        <v>0.01412714429868819</v>
       </c>
       <c r="L106">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M106">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N106">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="O106">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>845</v>
+        <v>977</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="K107">
-        <v>0.02032520325203252</v>
+        <v>0.01358411703239289</v>
       </c>
       <c r="L107">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M107">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="N107">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="O107">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>4820</v>
+        <v>944</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K108">
-        <v>0.01827553889409559</v>
+        <v>0.01356407857811038</v>
       </c>
       <c r="L108">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M108">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N108">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="O108">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>2095</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K109">
-        <v>0.01808887141171844</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="L109">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="M109">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="N109">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="O109">
-        <v>0.46</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>4994</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K110">
-        <v>0.01781110850714788</v>
+        <v>0.01294219154443486</v>
       </c>
       <c r="L110">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M110">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="N110">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="O110">
-        <v>0.45</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>4191</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="K111">
-        <v>0.01715039577836412</v>
+        <v>0.01160714285714286</v>
       </c>
       <c r="L111">
         <v>13</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N111">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="O111">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>745</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -5707,207 +5554,51 @@
         <v>72</v>
       </c>
       <c r="K112">
-        <v>0.01699463327370304</v>
+        <v>0.009678838539375276</v>
       </c>
       <c r="L112">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M112">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N112">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="O112">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>1099</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="K113">
-        <v>0.01621073961499494</v>
+        <v>0.007016371533578349</v>
       </c>
       <c r="L113">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M113">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="N113">
-        <v>0.57</v>
+        <v>0.16</v>
       </c>
       <c r="O113">
-        <v>0.43</v>
+        <v>0.84</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K114">
-        <v>0.01571268237934905</v>
-      </c>
-      <c r="L114">
-        <v>14</v>
-      </c>
-      <c r="M114">
-        <v>17</v>
-      </c>
-      <c r="N114">
-        <v>0.82</v>
-      </c>
-      <c r="O114">
-        <v>0.18</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K115">
-        <v>0.01452513966480447</v>
-      </c>
-      <c r="L115">
-        <v>13</v>
-      </c>
-      <c r="M115">
-        <v>23</v>
-      </c>
-      <c r="N115">
-        <v>0.57</v>
-      </c>
-      <c r="O115">
-        <v>0.43</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="116" spans="10:17">
-      <c r="J116" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K116">
-        <v>0.01389554384283661</v>
-      </c>
-      <c r="L116">
-        <v>29</v>
-      </c>
-      <c r="M116">
-        <v>85</v>
-      </c>
-      <c r="N116">
-        <v>0.34</v>
-      </c>
-      <c r="O116">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="P116" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q116">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K117">
-        <v>0.01275285839929639</v>
-      </c>
-      <c r="L117">
-        <v>29</v>
-      </c>
-      <c r="M117">
-        <v>64</v>
-      </c>
-      <c r="N117">
-        <v>0.45</v>
-      </c>
-      <c r="O117">
-        <v>0.55</v>
-      </c>
-      <c r="P117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="118" spans="10:17">
-      <c r="J118" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K118">
-        <v>0.01125541125541126</v>
-      </c>
-      <c r="L118">
-        <v>26</v>
-      </c>
-      <c r="M118">
-        <v>95</v>
-      </c>
-      <c r="N118">
-        <v>0.27</v>
-      </c>
-      <c r="O118">
-        <v>0.73</v>
-      </c>
-      <c r="P118" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q118">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="119" spans="10:17">
-      <c r="J119" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K119">
-        <v>0.006680026720106881</v>
-      </c>
-      <c r="L119">
-        <v>20</v>
-      </c>
-      <c r="M119">
-        <v>133</v>
-      </c>
-      <c r="N119">
-        <v>0.15</v>
-      </c>
-      <c r="O119">
-        <v>0.85</v>
-      </c>
-      <c r="P119" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q119">
-        <v>2974</v>
+        <v>2972</v>
       </c>
     </row>
   </sheetData>
